--- a/results/acl/baselines_sentiment.xlsx
+++ b/results/acl/baselines_sentiment.xlsx
@@ -488,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.5149934810951761</v>
+        <v>0.5215123859191656</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.6689655172413793</v>
+        <v>0.6491228070175439</v>
       </c>
     </row>
   </sheetData>
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.257496740547588</v>
+        <v>0.2607561929595828</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -773,7 +773,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.3344827586206897</v>
+        <v>0.3245614035087719</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +1007,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.3399311531841652</v>
+        <v>0.3427592116538132</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.4008264462809917</v>
+        <v>0.3936170212765958</v>
       </c>
     </row>
   </sheetData>
